--- a/outcome/simulate data/B_HCV.xlsx
+++ b/outcome/simulate data/B_HCV.xlsx
@@ -412,7 +412,7 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>27970.311987695</v>
+        <v>28807.0837351598</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -442,7 +442,7 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>28098.6938317403</v>
+        <v>28944.9861899432</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -472,7 +472,7 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>28227.6649397841</v>
+        <v>29083.5487978755</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -502,7 +502,7 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>28357.2280165083</v>
+        <v>29222.7747191772</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -532,7 +532,7 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>28487.3857790092</v>
+        <v>29362.6671291972</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -562,7 +562,7 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>28618.1409568544</v>
+        <v>29503.2292184851</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -592,7 +592,7 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>28749.4962921401</v>
+        <v>29644.4641928641</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -622,7 +622,7 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>28881.4545395484</v>
+        <v>29786.3752735039</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -652,7 +652,7 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>29014.0184664051</v>
+        <v>29928.9656969943</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -682,7 +682,7 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>29147.1908527381</v>
+        <v>30072.2387154189</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -712,7 +712,7 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>29280.9744913354</v>
+        <v>30216.1975964294</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -742,7 +742,7 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>29415.3721878035</v>
+        <v>30360.8456233203</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -772,7 +772,7 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>27970.311987695</v>
+        <v>28807.0837351598</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -802,7 +802,7 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>28098.6938317403</v>
+        <v>28944.9861899432</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -832,7 +832,7 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>28227.6649397841</v>
+        <v>29083.5487978755</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -862,7 +862,7 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>28357.2280165083</v>
+        <v>29222.7747191772</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -892,7 +892,7 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>28487.3857790092</v>
+        <v>29362.6671291972</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -922,7 +922,7 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>28618.1409568544</v>
+        <v>29503.2292184851</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -952,7 +952,7 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>28749.4962921401</v>
+        <v>29644.4641928641</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -982,7 +982,7 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>28881.4545395484</v>
+        <v>29786.3752735039</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -1012,7 +1012,7 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>29014.0184664051</v>
+        <v>29928.9656969943</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -1042,7 +1042,7 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>29147.1908527381</v>
+        <v>30072.2387154189</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -1072,7 +1072,7 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>29280.9744913354</v>
+        <v>30216.1975964294</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -1102,7 +1102,7 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>29415.3721878035</v>
+        <v>30360.8456233203</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -1132,7 +1132,7 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>27970.311987695</v>
+        <v>28807.0837351598</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1162,7 +1162,7 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>28098.6938317403</v>
+        <v>28944.9861899432</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -1192,7 +1192,7 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>28227.6649397841</v>
+        <v>29083.5487978755</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1222,7 +1222,7 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>28357.2280165083</v>
+        <v>29222.7747191772</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -1252,7 +1252,7 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>28487.3857790092</v>
+        <v>29362.6671291972</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -1282,7 +1282,7 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>28618.1409568544</v>
+        <v>29503.2292184851</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1312,7 +1312,7 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>28749.4962921401</v>
+        <v>29644.4641928641</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1342,7 +1342,7 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>28881.4545395484</v>
+        <v>29786.3752735039</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -1372,7 +1372,7 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>29014.0184664051</v>
+        <v>29928.9656969943</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1402,7 +1402,7 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>29147.1908527381</v>
+        <v>30072.2387154189</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1432,7 +1432,7 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>29280.9744913354</v>
+        <v>30216.1975964294</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1462,7 +1462,7 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>29415.3721878035</v>
+        <v>30360.8456233203</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
